--- a/Documents/Milestones.xlsx
+++ b/Documents/Milestones.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UBU\2.Semestre\Final_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UBU\2.Semestre\Final_Project\git-repository\gescopyme\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6650F67-44D2-4F18-837C-0847FE5D85C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62D1911-F27F-4154-B40B-27B74EA2C314}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Milestones</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>Test/ Evaluation and Dokumentation</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -221,9 +224,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -263,6 +265,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -547,151 +561,153 @@
   <dimension ref="B2:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="9.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48" style="12" customWidth="1"/>
-    <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48" style="11" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="9"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="17" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="15" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C11" s="2" t="s">
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="15"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B12" s="5"/>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="15"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B13" s="5"/>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="15"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B14" s="5"/>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="14" t="s">
+      <c r="D14" s="1"/>
+      <c r="E14" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="15"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="5"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
